--- a/data/trans_orig/P56S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304ED7D4-46DC-4ACF-997A-78CB9AE3F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{625AE976-AC6C-4032-9D8B-6842EB0CC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46040F1C-C307-43D8-A558-CF46BAA4A947}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAAC2E28-CB33-4662-BAC9-83D51EE1484B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C37AF-447A-42DD-9225-5D072C749C3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A71B9E-54A3-4317-9396-A5A7F04DD71B}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3120,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A9095E-01E3-4FC3-A183-4E758CD8217D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95355FF0-73D3-4F69-9957-F87655E16801}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5529,7 +5529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDEC669-8CF1-4BC2-9748-D82C567B83A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6880473C-BAFB-4D46-A1B5-FA82711FDB5C}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{625AE976-AC6C-4032-9D8B-6842EB0CC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BF365A8-1712-4C3C-A0DB-79B6763B205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAAC2E28-CB33-4662-BAC9-83D51EE1484B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D59D854-7B84-440F-A3E6-AE4CE406B04A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -139,7 +139,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,51%)</t>
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A71B9E-54A3-4317-9396-A5A7F04DD71B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73DFD93-60B2-4B2C-9264-B878053A9CA0}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3120,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95355FF0-73D3-4F69-9957-F87655E16801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302ADB5-862B-4887-B67C-AFAF129BC5A7}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5529,7 +5529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6880473C-BAFB-4D46-A1B5-FA82711FDB5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E55490A-9491-4E14-A47B-2266B6CBD5E9}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
